--- a/classfiers/bottleneck/elm/bottleneck_elm_tanh_results.xlsx
+++ b/classfiers/bottleneck/elm/bottleneck_elm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9141630901287554</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4431924882629109</v>
+        <v>0.5697044334975369</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9141630901287554</v>
+        <v>0.9765258215962441</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5631455399061033</v>
+        <v>0.6859903381642511</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9184549356223176</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09523809523809525</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5697245450073782</v>
+        <v>0.4876847290640394</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.896551724137931</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6454524937937259</v>
+        <v>0.6310892172961138</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9439655172413793</v>
+        <v>0.9481132075471698</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6691287878787879</v>
+        <v>0.6204166666666666</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9174596714518277</v>
+        <v>0.9586012932943573</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01052631578947368</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01904761904761905</v>
+        <v>0.1279120879120879</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5781287709697812</v>
+        <v>0.5989770769377214</v>
       </c>
     </row>
   </sheetData>
